--- a/natmiOut/OldD7/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>340.119855760688</v>
+        <v>343.9479473333333</v>
       </c>
       <c r="H2">
-        <v>340.119855760688</v>
+        <v>1031.843842</v>
       </c>
       <c r="I2">
-        <v>0.9687898421702493</v>
+        <v>0.9666099193889262</v>
       </c>
       <c r="J2">
-        <v>0.9687898421702493</v>
+        <v>0.966609919388926</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.7272017416048</v>
+        <v>50.862619</v>
       </c>
       <c r="N2">
-        <v>49.7272017416048</v>
+        <v>152.587857</v>
       </c>
       <c r="O2">
-        <v>0.6548880254832067</v>
+        <v>0.6466984659960481</v>
       </c>
       <c r="P2">
-        <v>0.6548880254832067</v>
+        <v>0.646698465996048</v>
       </c>
       <c r="Q2">
-        <v>16913.20868373726</v>
+        <v>17494.0934010474</v>
       </c>
       <c r="R2">
-        <v>16913.20868373726</v>
+        <v>157446.8406094266</v>
       </c>
       <c r="S2">
-        <v>0.634448866847062</v>
+        <v>0.6251051520853822</v>
       </c>
       <c r="T2">
-        <v>0.634448866847062</v>
+        <v>0.6251051520853821</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>340.119855760688</v>
+        <v>343.9479473333333</v>
       </c>
       <c r="H3">
-        <v>340.119855760688</v>
+        <v>1031.843842</v>
       </c>
       <c r="I3">
-        <v>0.9687898421702493</v>
+        <v>0.9666099193889262</v>
       </c>
       <c r="J3">
-        <v>0.9687898421702493</v>
+        <v>0.966609919388926</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.19869608474819</v>
+        <v>4.214243</v>
       </c>
       <c r="N3">
-        <v>4.19869608474819</v>
+        <v>12.642729</v>
       </c>
       <c r="O3">
-        <v>0.05529520448049395</v>
+        <v>0.05358246462759977</v>
       </c>
       <c r="P3">
-        <v>0.05529520448049395</v>
+        <v>0.05358246462759976</v>
       </c>
       <c r="Q3">
-        <v>1428.05990672752</v>
+        <v>1449.480229413869</v>
       </c>
       <c r="R3">
-        <v>1428.05990672752</v>
+        <v>13045.32206472482</v>
       </c>
       <c r="S3">
-        <v>0.0535694324214294</v>
+        <v>0.0517933418143442</v>
       </c>
       <c r="T3">
-        <v>0.0535694324214294</v>
+        <v>0.05179334181434418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>340.119855760688</v>
+        <v>343.9479473333333</v>
       </c>
       <c r="H4">
-        <v>340.119855760688</v>
+        <v>1031.843842</v>
       </c>
       <c r="I4">
-        <v>0.9687898421702493</v>
+        <v>0.9666099193889262</v>
       </c>
       <c r="J4">
-        <v>0.9687898421702493</v>
+        <v>0.966609919388926</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.8656496459936</v>
+        <v>23.01971966666666</v>
       </c>
       <c r="N4">
-        <v>21.8656496459936</v>
+        <v>69.05915899999999</v>
       </c>
       <c r="O4">
-        <v>0.2879621539329794</v>
+        <v>0.2926868039589623</v>
       </c>
       <c r="P4">
-        <v>0.2879621539329794</v>
+        <v>0.2926868039589623</v>
       </c>
       <c r="Q4">
-        <v>7436.941603709081</v>
+        <v>7917.585327538764</v>
       </c>
       <c r="R4">
-        <v>7436.941603709081</v>
+        <v>71258.26794784887</v>
       </c>
       <c r="S4">
-        <v>0.2789748096597361</v>
+        <v>0.282913967980975</v>
       </c>
       <c r="T4">
-        <v>0.2789748096597361</v>
+        <v>0.282913967980975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>340.119855760688</v>
+        <v>343.9479473333333</v>
       </c>
       <c r="H5">
-        <v>340.119855760688</v>
+        <v>1031.843842</v>
       </c>
       <c r="I5">
-        <v>0.9687898421702493</v>
+        <v>0.9666099193889262</v>
       </c>
       <c r="J5">
-        <v>0.9687898421702493</v>
+        <v>0.966609919388926</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.140825401495119</v>
+        <v>0.5530853333333333</v>
       </c>
       <c r="N5">
-        <v>0.140825401495119</v>
+        <v>1.659256</v>
       </c>
       <c r="O5">
-        <v>0.001854616103319913</v>
+        <v>0.007032265417389923</v>
       </c>
       <c r="P5">
-        <v>0.001854616103319913</v>
+        <v>0.007032265417389922</v>
       </c>
       <c r="Q5">
-        <v>47.89751524396085</v>
+        <v>190.2325651001725</v>
       </c>
       <c r="R5">
-        <v>47.89751524396085</v>
+        <v>1712.093085901552</v>
       </c>
       <c r="S5">
-        <v>0.001796733242021701</v>
+        <v>0.006797457508224807</v>
       </c>
       <c r="T5">
-        <v>0.001796733242021701</v>
+        <v>0.006797457508224805</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.96254801691429</v>
+        <v>5.970184</v>
       </c>
       <c r="H6">
-        <v>5.96254801691429</v>
+        <v>17.910552</v>
       </c>
       <c r="I6">
-        <v>0.01698358932712033</v>
+        <v>0.01677823379880302</v>
       </c>
       <c r="J6">
-        <v>0.01698358932712033</v>
+        <v>0.01677823379880302</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.7272017416048</v>
+        <v>50.862619</v>
       </c>
       <c r="N6">
-        <v>49.7272017416048</v>
+        <v>152.587857</v>
       </c>
       <c r="O6">
-        <v>0.6548880254832067</v>
+        <v>0.6466984659960481</v>
       </c>
       <c r="P6">
-        <v>0.6548880254832067</v>
+        <v>0.646698465996048</v>
       </c>
       <c r="Q6">
-        <v>296.5008281311025</v>
+        <v>303.659194151896</v>
       </c>
       <c r="R6">
-        <v>296.5008281311025</v>
+        <v>2732.932747367064</v>
       </c>
       <c r="S6">
-        <v>0.0111223492800555</v>
+        <v>0.01085045805980896</v>
       </c>
       <c r="T6">
-        <v>0.0111223492800555</v>
+        <v>0.01085045805980896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.96254801691429</v>
+        <v>5.970184</v>
       </c>
       <c r="H7">
-        <v>5.96254801691429</v>
+        <v>17.910552</v>
       </c>
       <c r="I7">
-        <v>0.01698358932712033</v>
+        <v>0.01677823379880302</v>
       </c>
       <c r="J7">
-        <v>0.01698358932712033</v>
+        <v>0.01677823379880302</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.19869608474819</v>
+        <v>4.214243</v>
       </c>
       <c r="N7">
-        <v>4.19869608474819</v>
+        <v>12.642729</v>
       </c>
       <c r="O7">
-        <v>0.05529520448049395</v>
+        <v>0.05358246462759977</v>
       </c>
       <c r="P7">
-        <v>0.05529520448049395</v>
+        <v>0.05358246462759976</v>
       </c>
       <c r="Q7">
-        <v>25.03492701374111</v>
+        <v>25.159806130712</v>
       </c>
       <c r="R7">
-        <v>25.03492701374111</v>
+        <v>226.438255176408</v>
       </c>
       <c r="S7">
-        <v>0.0009391110446558535</v>
+        <v>0.0008990191190379619</v>
       </c>
       <c r="T7">
-        <v>0.0009391110446558535</v>
+        <v>0.0008990191190379618</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.96254801691429</v>
+        <v>5.970184</v>
       </c>
       <c r="H8">
-        <v>5.96254801691429</v>
+        <v>17.910552</v>
       </c>
       <c r="I8">
-        <v>0.01698358932712033</v>
+        <v>0.01677823379880302</v>
       </c>
       <c r="J8">
-        <v>0.01698358932712033</v>
+        <v>0.01677823379880302</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.8656496459936</v>
+        <v>23.01971966666666</v>
       </c>
       <c r="N8">
-        <v>21.8656496459936</v>
+        <v>69.05915899999999</v>
       </c>
       <c r="O8">
-        <v>0.2879621539329794</v>
+        <v>0.2926868039589623</v>
       </c>
       <c r="P8">
-        <v>0.2879621539329794</v>
+        <v>0.2926868039589623</v>
       </c>
       <c r="Q8">
-        <v>130.3749859352618</v>
+        <v>137.4319620384186</v>
       </c>
       <c r="R8">
-        <v>130.3749859352618</v>
+        <v>1236.887658345768</v>
       </c>
       <c r="S8">
-        <v>0.004890630964150732</v>
+        <v>0.004910767626647897</v>
       </c>
       <c r="T8">
-        <v>0.004890630964150732</v>
+        <v>0.004910767626647896</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.96254801691429</v>
+        <v>5.970184</v>
       </c>
       <c r="H9">
-        <v>5.96254801691429</v>
+        <v>17.910552</v>
       </c>
       <c r="I9">
-        <v>0.01698358932712033</v>
+        <v>0.01677823379880302</v>
       </c>
       <c r="J9">
-        <v>0.01698358932712033</v>
+        <v>0.01677823379880302</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.140825401495119</v>
+        <v>0.5530853333333333</v>
       </c>
       <c r="N9">
-        <v>0.140825401495119</v>
+        <v>1.659256</v>
       </c>
       <c r="O9">
-        <v>0.001854616103319913</v>
+        <v>0.007032265417389923</v>
       </c>
       <c r="P9">
-        <v>0.001854616103319913</v>
+        <v>0.007032265417389922</v>
       </c>
       <c r="Q9">
-        <v>0.8396782184158805</v>
+        <v>3.302021207701333</v>
       </c>
       <c r="R9">
-        <v>0.8396782184158805</v>
+        <v>29.718190869312</v>
       </c>
       <c r="S9">
-        <v>3.149803825824958E-05</v>
+        <v>0.0001179889933082053</v>
       </c>
       <c r="T9">
-        <v>3.149803825824958E-05</v>
+        <v>0.0001179889933082052</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.39850846972945</v>
+        <v>2.671367333333334</v>
       </c>
       <c r="H10">
-        <v>2.39850846972945</v>
+        <v>8.014102000000001</v>
       </c>
       <c r="I10">
-        <v>0.006831858247841154</v>
+        <v>0.007507444608265281</v>
       </c>
       <c r="J10">
-        <v>0.006831858247841154</v>
+        <v>0.00750744460826528</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.7272017416048</v>
+        <v>50.862619</v>
       </c>
       <c r="N10">
-        <v>49.7272017416048</v>
+        <v>152.587857</v>
       </c>
       <c r="O10">
-        <v>0.6548880254832067</v>
+        <v>0.6466984659960481</v>
       </c>
       <c r="P10">
-        <v>0.6548880254832067</v>
+        <v>0.646698465996048</v>
       </c>
       <c r="Q10">
-        <v>119.2711145531842</v>
+        <v>135.8727388843793</v>
       </c>
       <c r="R10">
-        <v>119.2711145531842</v>
+        <v>1222.854649959414</v>
       </c>
       <c r="S10">
-        <v>0.004474102158309854</v>
+        <v>0.00485505291171546</v>
       </c>
       <c r="T10">
-        <v>0.004474102158309854</v>
+        <v>0.004855052911715458</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.39850846972945</v>
+        <v>2.671367333333334</v>
       </c>
       <c r="H11">
-        <v>2.39850846972945</v>
+        <v>8.014102000000001</v>
       </c>
       <c r="I11">
-        <v>0.006831858247841154</v>
+        <v>0.007507444608265281</v>
       </c>
       <c r="J11">
-        <v>0.006831858247841154</v>
+        <v>0.00750744460826528</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.19869608474819</v>
+        <v>4.214243</v>
       </c>
       <c r="N11">
-        <v>4.19869608474819</v>
+        <v>12.642729</v>
       </c>
       <c r="O11">
-        <v>0.05529520448049395</v>
+        <v>0.05358246462759977</v>
       </c>
       <c r="P11">
-        <v>0.05529520448049395</v>
+        <v>0.05358246462759976</v>
       </c>
       <c r="Q11">
-        <v>10.07060812108841</v>
+        <v>11.25779108492867</v>
       </c>
       <c r="R11">
-        <v>10.07060812108841</v>
+        <v>101.320119764358</v>
       </c>
       <c r="S11">
-        <v>0.0003777689987961257</v>
+        <v>0.000402267385166039</v>
       </c>
       <c r="T11">
-        <v>0.0003777689987961257</v>
+        <v>0.0004022673851660389</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.39850846972945</v>
+        <v>2.671367333333334</v>
       </c>
       <c r="H12">
-        <v>2.39850846972945</v>
+        <v>8.014102000000001</v>
       </c>
       <c r="I12">
-        <v>0.006831858247841154</v>
+        <v>0.007507444608265281</v>
       </c>
       <c r="J12">
-        <v>0.006831858247841154</v>
+        <v>0.00750744460826528</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.8656496459936</v>
+        <v>23.01971966666666</v>
       </c>
       <c r="N12">
-        <v>21.8656496459936</v>
+        <v>69.05915899999999</v>
       </c>
       <c r="O12">
-        <v>0.2879621539329794</v>
+        <v>0.2926868039589623</v>
       </c>
       <c r="P12">
-        <v>0.2879621539329794</v>
+        <v>0.2926868039589623</v>
       </c>
       <c r="Q12">
-        <v>52.4449458720524</v>
+        <v>61.49412714002423</v>
       </c>
       <c r="R12">
-        <v>52.4449458720524</v>
+        <v>553.447144260218</v>
       </c>
       <c r="S12">
-        <v>0.00196731661641313</v>
+        <v>0.002197329968292109</v>
       </c>
       <c r="T12">
-        <v>0.00196731661641313</v>
+        <v>0.002197329968292108</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.39850846972945</v>
+        <v>2.671367333333334</v>
       </c>
       <c r="H13">
-        <v>2.39850846972945</v>
+        <v>8.014102000000001</v>
       </c>
       <c r="I13">
-        <v>0.006831858247841154</v>
+        <v>0.007507444608265281</v>
       </c>
       <c r="J13">
-        <v>0.006831858247841154</v>
+        <v>0.00750744460826528</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.140825401495119</v>
+        <v>0.5530853333333333</v>
       </c>
       <c r="N13">
-        <v>0.140825401495119</v>
+        <v>1.659256</v>
       </c>
       <c r="O13">
-        <v>0.001854616103319913</v>
+        <v>0.007032265417389923</v>
       </c>
       <c r="P13">
-        <v>0.001854616103319913</v>
+        <v>0.007032265417389922</v>
       </c>
       <c r="Q13">
-        <v>0.3377709182390933</v>
+        <v>1.477494092012445</v>
       </c>
       <c r="R13">
-        <v>0.3377709182390933</v>
+        <v>13.297446828112</v>
       </c>
       <c r="S13">
-        <v>1.267047432204517E-05</v>
+        <v>5.279434309167438E-05</v>
       </c>
       <c r="T13">
-        <v>1.267047432204517E-05</v>
+        <v>5.279434309167436E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.59611287791453</v>
+        <v>3.239611333333334</v>
       </c>
       <c r="H14">
-        <v>2.59611287791453</v>
+        <v>9.718834000000001</v>
       </c>
       <c r="I14">
-        <v>0.00739471025478916</v>
+        <v>0.009104402204005551</v>
       </c>
       <c r="J14">
-        <v>0.00739471025478916</v>
+        <v>0.00910440220400555</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>49.7272017416048</v>
+        <v>50.862619</v>
       </c>
       <c r="N14">
-        <v>49.7272017416048</v>
+        <v>152.587857</v>
       </c>
       <c r="O14">
-        <v>0.6548880254832067</v>
+        <v>0.6466984659960481</v>
       </c>
       <c r="P14">
-        <v>0.6548880254832067</v>
+        <v>0.646698465996048</v>
       </c>
       <c r="Q14">
-        <v>129.0974288240341</v>
+        <v>164.7751169554153</v>
       </c>
       <c r="R14">
-        <v>129.0974288240341</v>
+        <v>1482.976052598738</v>
       </c>
       <c r="S14">
-        <v>0.004842707197779293</v>
+        <v>0.005887802939141429</v>
       </c>
       <c r="T14">
-        <v>0.004842707197779293</v>
+        <v>0.005887802939141427</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.59611287791453</v>
+        <v>3.239611333333334</v>
       </c>
       <c r="H15">
-        <v>2.59611287791453</v>
+        <v>9.718834000000001</v>
       </c>
       <c r="I15">
-        <v>0.00739471025478916</v>
+        <v>0.009104402204005551</v>
       </c>
       <c r="J15">
-        <v>0.00739471025478916</v>
+        <v>0.00910440220400555</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.19869608474819</v>
+        <v>4.214243</v>
       </c>
       <c r="N15">
-        <v>4.19869608474819</v>
+        <v>12.642729</v>
       </c>
       <c r="O15">
-        <v>0.05529520448049395</v>
+        <v>0.05358246462759977</v>
       </c>
       <c r="P15">
-        <v>0.05529520448049395</v>
+        <v>0.05358246462759976</v>
       </c>
       <c r="Q15">
-        <v>10.90028897606409</v>
+        <v>13.65250938422067</v>
       </c>
       <c r="R15">
-        <v>10.90028897606409</v>
+        <v>122.872584457986</v>
       </c>
       <c r="S15">
-        <v>0.0004088920156125721</v>
+        <v>0.0004878363090515688</v>
       </c>
       <c r="T15">
-        <v>0.0004088920156125721</v>
+        <v>0.0004878363090515686</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.59611287791453</v>
+        <v>3.239611333333334</v>
       </c>
       <c r="H16">
-        <v>2.59611287791453</v>
+        <v>9.718834000000001</v>
       </c>
       <c r="I16">
-        <v>0.00739471025478916</v>
+        <v>0.009104402204005551</v>
       </c>
       <c r="J16">
-        <v>0.00739471025478916</v>
+        <v>0.00910440220400555</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.8656496459936</v>
+        <v>23.01971966666666</v>
       </c>
       <c r="N16">
-        <v>21.8656496459936</v>
+        <v>69.05915899999999</v>
       </c>
       <c r="O16">
-        <v>0.2879621539329794</v>
+        <v>0.2926868039589623</v>
       </c>
       <c r="P16">
-        <v>0.2879621539329794</v>
+        <v>0.2926868039589623</v>
       </c>
       <c r="Q16">
-        <v>56.76569462993127</v>
+        <v>74.57494472228956</v>
       </c>
       <c r="R16">
-        <v>56.76569462993127</v>
+        <v>671.174502500606</v>
       </c>
       <c r="S16">
-        <v>0.002129396692679377</v>
+        <v>0.002664738383047318</v>
       </c>
       <c r="T16">
-        <v>0.002129396692679377</v>
+        <v>0.002664738383047316</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.59611287791453</v>
+        <v>3.239611333333334</v>
       </c>
       <c r="H17">
-        <v>2.59611287791453</v>
+        <v>9.718834000000001</v>
       </c>
       <c r="I17">
-        <v>0.00739471025478916</v>
+        <v>0.009104402204005551</v>
       </c>
       <c r="J17">
-        <v>0.00739471025478916</v>
+        <v>0.00910440220400555</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.140825401495119</v>
+        <v>0.5530853333333333</v>
       </c>
       <c r="N17">
-        <v>0.140825401495119</v>
+        <v>1.659256</v>
       </c>
       <c r="O17">
-        <v>0.001854616103319913</v>
+        <v>0.007032265417389923</v>
       </c>
       <c r="P17">
-        <v>0.001854616103319913</v>
+        <v>0.007032265417389922</v>
       </c>
       <c r="Q17">
-        <v>0.3655986383589626</v>
+        <v>1.791781514167111</v>
       </c>
       <c r="R17">
-        <v>0.3655986383589626</v>
+        <v>16.126033627504</v>
       </c>
       <c r="S17">
-        <v>1.371434871791687E-05</v>
+        <v>6.402457276523683E-05</v>
       </c>
       <c r="T17">
-        <v>1.371434871791687E-05</v>
+        <v>6.402457276523682E-05</v>
       </c>
     </row>
   </sheetData>
